--- a/src/main/resources/excelTemp/purchaseOrderTemp.xlsx
+++ b/src/main/resources/excelTemp/purchaseOrderTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="单据" sheetId="1" r:id="rId1"/>
@@ -1063,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1126,8 +1126,8 @@
   <sheetPr/>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
